--- a/pred_ohlcv/54/2019-10-16 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-16 STRAT ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H256"/>
+  <dimension ref="A1:I236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C2" t="n">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="D2" t="n">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E2" t="n">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F2" t="n">
-        <v>530.7121</v>
+        <v>201.1929</v>
       </c>
       <c r="G2" t="n">
-        <v>760.0666666666667</v>
+        <v>760.5666666666667</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C3" t="n">
         <v>738</v>
@@ -443,15 +451,18 @@
         <v>738</v>
       </c>
       <c r="E3" t="n">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F3" t="n">
-        <v>107.2553</v>
+        <v>530.7121</v>
       </c>
       <c r="G3" t="n">
-        <v>759.55</v>
+        <v>760.0666666666667</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="C4" t="n">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="D4" t="n">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="E4" t="n">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="F4" t="n">
-        <v>88.9742</v>
+        <v>107.2553</v>
       </c>
       <c r="G4" t="n">
-        <v>759.3166666666667</v>
+        <v>759.55</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -489,21 +503,24 @@
         <v>720</v>
       </c>
       <c r="C5" t="n">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="D5" t="n">
         <v>720</v>
       </c>
       <c r="E5" t="n">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="F5" t="n">
-        <v>10497.4652</v>
+        <v>88.9742</v>
       </c>
       <c r="G5" t="n">
-        <v>758.55</v>
+        <v>759.3166666666667</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="C6" t="n">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="D6" t="n">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="E6" t="n">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F6" t="n">
-        <v>1731.4911</v>
+        <v>10497.4652</v>
       </c>
       <c r="G6" t="n">
-        <v>757.6</v>
+        <v>758.55</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>710</v>
       </c>
       <c r="F7" t="n">
-        <v>763.1187</v>
+        <v>1731.4911</v>
       </c>
       <c r="G7" t="n">
-        <v>756.65</v>
+        <v>757.6</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C8" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D8" t="n">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E8" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F8" t="n">
-        <v>759.615</v>
+        <v>763.1187</v>
       </c>
       <c r="G8" t="n">
-        <v>755.7166666666667</v>
+        <v>756.65</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C9" t="n">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="D9" t="n">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="E9" t="n">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="F9" t="n">
-        <v>1442.5984</v>
+        <v>759.615</v>
       </c>
       <c r="G9" t="n">
-        <v>754.6666666666666</v>
+        <v>755.7166666666667</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>710</v>
+      </c>
+      <c r="C10" t="n">
         <v>704</v>
       </c>
-      <c r="C10" t="n">
-        <v>705</v>
-      </c>
       <c r="D10" t="n">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="E10" t="n">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="F10" t="n">
-        <v>7707.244</v>
+        <v>1442.5984</v>
       </c>
       <c r="G10" t="n">
-        <v>753.6333333333333</v>
+        <v>754.6666666666666</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,7 +674,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C11" t="n">
         <v>705</v>
@@ -651,15 +683,18 @@
         <v>705</v>
       </c>
       <c r="E11" t="n">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F11" t="n">
-        <v>958.0863000000001</v>
+        <v>7707.244</v>
       </c>
       <c r="G11" t="n">
-        <v>752.5</v>
+        <v>753.6333333333333</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C12" t="n">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="D12" t="n">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="E12" t="n">
         <v>705</v>
       </c>
       <c r="F12" t="n">
-        <v>6046.1439</v>
+        <v>958.0863000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>751.6666666666666</v>
+        <v>752.5</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C13" t="n">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="D13" t="n">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="E13" t="n">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F13" t="n">
-        <v>1192.0575</v>
+        <v>6046.1439</v>
       </c>
       <c r="G13" t="n">
-        <v>750.5</v>
+        <v>751.6666666666666</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -723,21 +764,24 @@
         <v>711</v>
       </c>
       <c r="C14" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D14" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E14" t="n">
         <v>711</v>
       </c>
       <c r="F14" t="n">
-        <v>3389.0143</v>
+        <v>1192.0575</v>
       </c>
       <c r="G14" t="n">
-        <v>749.4833333333333</v>
+        <v>750.5</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C15" t="n">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="D15" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E15" t="n">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="F15" t="n">
-        <v>846.846</v>
+        <v>3389.0143</v>
       </c>
       <c r="G15" t="n">
-        <v>748.2666666666667</v>
+        <v>749.4833333333333</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,21 +822,24 @@
         <v>712</v>
       </c>
       <c r="C16" t="n">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="D16" t="n">
         <v>712</v>
       </c>
       <c r="E16" t="n">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>846.846</v>
       </c>
       <c r="G16" t="n">
-        <v>747.4333333333333</v>
+        <v>748.2666666666667</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="C17" t="n">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D17" t="n">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E17" t="n">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="F17" t="n">
-        <v>413.7934</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>746.55</v>
+        <v>747.4333333333333</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>705</v>
+      </c>
+      <c r="C18" t="n">
         <v>711</v>
-      </c>
-      <c r="C18" t="n">
-        <v>704</v>
       </c>
       <c r="D18" t="n">
         <v>711</v>
       </c>
       <c r="E18" t="n">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F18" t="n">
-        <v>648.3526000000001</v>
+        <v>413.7934</v>
       </c>
       <c r="G18" t="n">
-        <v>745.5</v>
+        <v>746.55</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C19" t="n">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D19" t="n">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E19" t="n">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="F19" t="n">
-        <v>561.6813</v>
+        <v>648.3526000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>744.5833333333334</v>
+        <v>745.5</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C20" t="n">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="D20" t="n">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="E20" t="n">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F20" t="n">
-        <v>2848.0926</v>
+        <v>561.6813</v>
       </c>
       <c r="G20" t="n">
-        <v>743.9666666666667</v>
+        <v>744.5833333333334</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="C21" t="n">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="D21" t="n">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="E21" t="n">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="F21" t="n">
-        <v>106.8549</v>
+        <v>2848.0926</v>
       </c>
       <c r="G21" t="n">
-        <v>742.9833333333333</v>
+        <v>743.9666666666667</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,7 +993,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C22" t="n">
         <v>710</v>
@@ -937,15 +1002,18 @@
         <v>710</v>
       </c>
       <c r="E22" t="n">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F22" t="n">
-        <v>3048.7594</v>
+        <v>106.8549</v>
       </c>
       <c r="G22" t="n">
-        <v>742</v>
+        <v>742.9833333333333</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C23" t="n">
         <v>710</v>
       </c>
       <c r="D23" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E23" t="n">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F23" t="n">
-        <v>3087.7414</v>
+        <v>3048.7594</v>
       </c>
       <c r="G23" t="n">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C24" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D24" t="n">
         <v>711</v>
       </c>
       <c r="E24" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F24" t="n">
-        <v>77.9747</v>
+        <v>3087.7414</v>
       </c>
       <c r="G24" t="n">
-        <v>740.0166666666667</v>
+        <v>741</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="C25" t="n">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="D25" t="n">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="E25" t="n">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="F25" t="n">
-        <v>631.9930000000001</v>
+        <v>77.9747</v>
       </c>
       <c r="G25" t="n">
-        <v>739.2333333333333</v>
+        <v>740.0166666666667</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C26" t="n">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D26" t="n">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E26" t="n">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F26" t="n">
-        <v>47.6183</v>
+        <v>631.9930000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>738.45</v>
+        <v>739.2333333333333</v>
       </c>
       <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="C27" t="n">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="D27" t="n">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="E27" t="n">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="F27" t="n">
-        <v>2204.2916</v>
+        <v>47.6183</v>
       </c>
       <c r="G27" t="n">
-        <v>737.3333333333334</v>
+        <v>738.45</v>
       </c>
       <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C28" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D28" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E28" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F28" t="n">
-        <v>2045.7984</v>
+        <v>2204.2916</v>
       </c>
       <c r="G28" t="n">
-        <v>736.15</v>
+        <v>737.3333333333334</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C29" t="n">
         <v>710</v>
       </c>
       <c r="D29" t="n">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="E29" t="n">
         <v>710</v>
       </c>
       <c r="F29" t="n">
-        <v>321.3601</v>
+        <v>2045.7984</v>
       </c>
       <c r="G29" t="n">
-        <v>735.1666666666666</v>
+        <v>736.15</v>
       </c>
       <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C30" t="n">
         <v>710</v>
       </c>
       <c r="D30" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E30" t="n">
         <v>710</v>
       </c>
       <c r="F30" t="n">
-        <v>1675.7407</v>
+        <v>321.3601</v>
       </c>
       <c r="G30" t="n">
-        <v>734.2333333333333</v>
+        <v>735.1666666666666</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C31" t="n">
         <v>710</v>
       </c>
       <c r="D31" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E31" t="n">
         <v>710</v>
       </c>
       <c r="F31" t="n">
-        <v>11.7907</v>
+        <v>1675.7407</v>
       </c>
       <c r="G31" t="n">
-        <v>732.9166666666666</v>
+        <v>734.2333333333333</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>710</v>
       </c>
       <c r="F32" t="n">
-        <v>990.045</v>
+        <v>11.7907</v>
       </c>
       <c r="G32" t="n">
-        <v>731.6</v>
+        <v>732.9166666666666</v>
       </c>
       <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,21 +1315,24 @@
         <v>710</v>
       </c>
       <c r="C33" t="n">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="D33" t="n">
         <v>710</v>
       </c>
       <c r="E33" t="n">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="F33" t="n">
-        <v>3104.0539</v>
+        <v>990.045</v>
       </c>
       <c r="G33" t="n">
-        <v>730.1666666666666</v>
+        <v>731.6</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C34" t="n">
-        <v>712</v>
+        <v>688</v>
       </c>
       <c r="D34" t="n">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E34" t="n">
-        <v>712</v>
+        <v>688</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>3104.0539</v>
       </c>
       <c r="G34" t="n">
-        <v>729.2666666666667</v>
+        <v>730.1666666666666</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>712</v>
       </c>
       <c r="F35" t="n">
-        <v>1191.1947</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>728.0166666666667</v>
+        <v>729.2666666666667</v>
       </c>
       <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C36" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D36" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E36" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F36" t="n">
-        <v>497.4796</v>
+        <v>1191.1947</v>
       </c>
       <c r="G36" t="n">
-        <v>726.85</v>
+        <v>728.0166666666667</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1321,21 +1431,24 @@
         <v>713</v>
       </c>
       <c r="C37" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D37" t="n">
         <v>713</v>
       </c>
       <c r="E37" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F37" t="n">
-        <v>1524.5273</v>
+        <v>497.4796</v>
       </c>
       <c r="G37" t="n">
-        <v>725.8</v>
+        <v>726.85</v>
       </c>
       <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="C38" t="n">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="D38" t="n">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="E38" t="n">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="F38" t="n">
-        <v>613.3971</v>
+        <v>1524.5273</v>
       </c>
       <c r="G38" t="n">
-        <v>724.55</v>
+        <v>725.8</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C39" t="n">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D39" t="n">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E39" t="n">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F39" t="n">
-        <v>26.9959</v>
+        <v>613.3971</v>
       </c>
       <c r="G39" t="n">
-        <v>723.6</v>
+        <v>724.55</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C40" t="n">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="D40" t="n">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E40" t="n">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="F40" t="n">
-        <v>2475.8788</v>
+        <v>26.9959</v>
       </c>
       <c r="G40" t="n">
-        <v>722.6833333333333</v>
+        <v>723.6</v>
       </c>
       <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C41" t="n">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D41" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E41" t="n">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F41" t="n">
-        <v>115.1864</v>
+        <v>2475.8788</v>
       </c>
       <c r="G41" t="n">
-        <v>721.6833333333333</v>
+        <v>722.6833333333333</v>
       </c>
       <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="C42" t="n">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="D42" t="n">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="E42" t="n">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>115.1864</v>
       </c>
       <c r="G42" t="n">
-        <v>721.3166666666667</v>
+        <v>721.6833333333333</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C43" t="n">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D43" t="n">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E43" t="n">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F43" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>720.4166666666666</v>
+        <v>721.3166666666667</v>
       </c>
       <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>711</v>
       </c>
       <c r="F44" t="n">
-        <v>0.462</v>
+        <v>81</v>
       </c>
       <c r="G44" t="n">
-        <v>719.4166666666666</v>
+        <v>720.4166666666666</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="C45" t="n">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="D45" t="n">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="E45" t="n">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F45" t="n">
-        <v>1.0268</v>
+        <v>0.462</v>
       </c>
       <c r="G45" t="n">
-        <v>719.0333333333333</v>
+        <v>719.4166666666666</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1555,21 +1692,24 @@
         <v>719</v>
       </c>
       <c r="C46" t="n">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D46" t="n">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E46" t="n">
         <v>719</v>
       </c>
       <c r="F46" t="n">
-        <v>573.2474999999999</v>
+        <v>1.0268</v>
       </c>
       <c r="G46" t="n">
-        <v>718.7166666666667</v>
+        <v>719.0333333333333</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="C47" t="n">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="D47" t="n">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="E47" t="n">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="F47" t="n">
-        <v>1.262</v>
+        <v>573.2474999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>718.2333333333333</v>
+        <v>718.7166666666667</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="C48" t="n">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="D48" t="n">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="E48" t="n">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="F48" t="n">
-        <v>751.3378</v>
+        <v>1.262</v>
       </c>
       <c r="G48" t="n">
-        <v>717.0333333333333</v>
+        <v>718.2333333333333</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C49" t="n">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D49" t="n">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="E49" t="n">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F49" t="n">
-        <v>97.4529</v>
+        <v>751.3378</v>
       </c>
       <c r="G49" t="n">
-        <v>716.2833333333333</v>
+        <v>717.0333333333333</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C50" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D50" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E50" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F50" t="n">
-        <v>476.0128</v>
+        <v>97.4529</v>
       </c>
       <c r="G50" t="n">
-        <v>715.6833333333333</v>
+        <v>716.2833333333333</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1685,21 +1837,24 @@
         <v>701</v>
       </c>
       <c r="C51" t="n">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D51" t="n">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E51" t="n">
         <v>701</v>
       </c>
       <c r="F51" t="n">
-        <v>783.6581</v>
+        <v>476.0128</v>
       </c>
       <c r="G51" t="n">
-        <v>715.0333333333333</v>
+        <v>715.6833333333333</v>
       </c>
       <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="C52" t="n">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D52" t="n">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="E52" t="n">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="F52" t="n">
-        <v>15</v>
+        <v>783.6581</v>
       </c>
       <c r="G52" t="n">
-        <v>714.2333333333333</v>
+        <v>715.0333333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,7 +1892,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C53" t="n">
         <v>711</v>
@@ -1743,15 +1901,18 @@
         <v>711</v>
       </c>
       <c r="E53" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F53" t="n">
-        <v>214.9857</v>
+        <v>15</v>
       </c>
       <c r="G53" t="n">
-        <v>713.75</v>
+        <v>714.2333333333333</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>711</v>
       </c>
       <c r="F54" t="n">
-        <v>9.975</v>
+        <v>214.9857</v>
       </c>
       <c r="G54" t="n">
-        <v>713.0333333333333</v>
+        <v>713.75</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="C55" t="n">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="D55" t="n">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="E55" t="n">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>9.975</v>
       </c>
       <c r="G55" t="n">
-        <v>712.7166666666667</v>
+        <v>713.0333333333333</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>719</v>
       </c>
       <c r="F56" t="n">
-        <v>200.6588</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>712.4</v>
+        <v>712.7166666666667</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C57" t="n">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D57" t="n">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E57" t="n">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F57" t="n">
-        <v>752.6999</v>
+        <v>200.6588</v>
       </c>
       <c r="G57" t="n">
-        <v>712.3833333333333</v>
+        <v>712.4</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>720</v>
       </c>
       <c r="F58" t="n">
-        <v>186.0364</v>
+        <v>752.6999</v>
       </c>
       <c r="G58" t="n">
-        <v>712.35</v>
+        <v>712.3833333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>720</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>186.0364</v>
       </c>
       <c r="G59" t="n">
-        <v>712.4166666666666</v>
+        <v>712.35</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="C60" t="n">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="D60" t="n">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="E60" t="n">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="F60" t="n">
-        <v>4784.0507</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>711.8833333333333</v>
+        <v>712.4166666666666</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>697</v>
+        <v>711</v>
       </c>
       <c r="C61" t="n">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="D61" t="n">
-        <v>697</v>
+        <v>711</v>
       </c>
       <c r="E61" t="n">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F61" t="n">
-        <v>3872.4002</v>
+        <v>4784.0507</v>
       </c>
       <c r="G61" t="n">
-        <v>711.1666666666666</v>
+        <v>711.8833333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="C62" t="n">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="D62" t="n">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="E62" t="n">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="F62" t="n">
-        <v>321.3158</v>
+        <v>3872.4002</v>
       </c>
       <c r="G62" t="n">
-        <v>710.2666666666667</v>
+        <v>711.1666666666666</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="C63" t="n">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="D63" t="n">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="E63" t="n">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="F63" t="n">
-        <v>2010.0561</v>
+        <v>321.3158</v>
       </c>
       <c r="G63" t="n">
-        <v>709.55</v>
+        <v>710.2666666666667</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>692</v>
+      </c>
+      <c r="C64" t="n">
         <v>695</v>
       </c>
-      <c r="C64" t="n">
-        <v>684</v>
-      </c>
       <c r="D64" t="n">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="E64" t="n">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="F64" t="n">
-        <v>5373.4826</v>
+        <v>2010.0561</v>
       </c>
       <c r="G64" t="n">
-        <v>708.9666666666667</v>
+        <v>709.55</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C65" t="n">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="D65" t="n">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E65" t="n">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>5373.4826</v>
       </c>
       <c r="G65" t="n">
-        <v>708.8333333333334</v>
+        <v>708.9666666666667</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>688</v>
+        <v>705</v>
       </c>
       <c r="C66" t="n">
-        <v>682</v>
+        <v>705</v>
       </c>
       <c r="D66" t="n">
-        <v>688</v>
+        <v>705</v>
       </c>
       <c r="E66" t="n">
-        <v>682</v>
+        <v>705</v>
       </c>
       <c r="F66" t="n">
-        <v>9694.890799999999</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>708.3666666666667</v>
+        <v>708.8333333333334</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="C67" t="n">
         <v>682</v>
       </c>
       <c r="D67" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="E67" t="n">
         <v>682</v>
       </c>
       <c r="F67" t="n">
-        <v>408.7266</v>
+        <v>9694.890799999999</v>
       </c>
       <c r="G67" t="n">
-        <v>707.9</v>
+        <v>708.3666666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="C68" t="n">
-        <v>706</v>
+        <v>682</v>
       </c>
       <c r="D68" t="n">
-        <v>706</v>
+        <v>682</v>
       </c>
       <c r="E68" t="n">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="F68" t="n">
-        <v>138.2394</v>
+        <v>408.7266</v>
       </c>
       <c r="G68" t="n">
-        <v>707.8166666666667</v>
+        <v>707.9</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C69" t="n">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D69" t="n">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="E69" t="n">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F69" t="n">
-        <v>216.9985</v>
+        <v>138.2394</v>
       </c>
       <c r="G69" t="n">
-        <v>707.8</v>
+        <v>707.8166666666667</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>703</v>
       </c>
       <c r="F70" t="n">
-        <v>367.8</v>
+        <v>216.9985</v>
       </c>
       <c r="G70" t="n">
-        <v>707.7666666666667</v>
+        <v>707.8</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C71" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D71" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E71" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F71" t="n">
-        <v>98.6769</v>
+        <v>367.8</v>
       </c>
       <c r="G71" t="n">
-        <v>707.75</v>
+        <v>707.7666666666667</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2231,21 +2446,24 @@
         <v>704</v>
       </c>
       <c r="C72" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D72" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E72" t="n">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="F72" t="n">
-        <v>19.2704</v>
+        <v>98.6769</v>
       </c>
       <c r="G72" t="n">
-        <v>707.45</v>
+        <v>707.75</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="C73" t="n">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="D73" t="n">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="E73" t="n">
         <v>697</v>
       </c>
       <c r="F73" t="n">
-        <v>216.456</v>
+        <v>19.2704</v>
       </c>
       <c r="G73" t="n">
-        <v>707.2</v>
+        <v>707.45</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="C74" t="n">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="D74" t="n">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="E74" t="n">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>216.456</v>
       </c>
       <c r="G74" t="n">
-        <v>707.0833333333334</v>
+        <v>707.2</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C75" t="n">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D75" t="n">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="E75" t="n">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="F75" t="n">
-        <v>166.5</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>707.1333333333333</v>
+        <v>707.0833333333334</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="C76" t="n">
-        <v>682</v>
+        <v>703</v>
       </c>
       <c r="D76" t="n">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="E76" t="n">
-        <v>682</v>
+        <v>703</v>
       </c>
       <c r="F76" t="n">
-        <v>3989.3746</v>
+        <v>166.5</v>
       </c>
       <c r="G76" t="n">
-        <v>706.6333333333333</v>
+        <v>707.1333333333333</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="C77" t="n">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="D77" t="n">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="E77" t="n">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>3989.3746</v>
       </c>
       <c r="G77" t="n">
-        <v>706.5333333333333</v>
+        <v>706.6333333333333</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="C78" t="n">
-        <v>684</v>
+        <v>705</v>
       </c>
       <c r="D78" t="n">
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="E78" t="n">
-        <v>684</v>
+        <v>705</v>
       </c>
       <c r="F78" t="n">
-        <v>140.1144</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>706.2</v>
+        <v>706.5333333333333</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C79" t="n">
         <v>684</v>
       </c>
       <c r="D79" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E79" t="n">
         <v>684</v>
       </c>
       <c r="F79" t="n">
-        <v>1702.0292</v>
+        <v>140.1144</v>
       </c>
       <c r="G79" t="n">
-        <v>705.7166666666667</v>
+        <v>706.2</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C80" t="n">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D80" t="n">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E80" t="n">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F80" t="n">
-        <v>1004.1327</v>
+        <v>1702.0292</v>
       </c>
       <c r="G80" t="n">
-        <v>704.8833333333333</v>
+        <v>705.7166666666667</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C81" t="n">
         <v>682</v>
       </c>
       <c r="D81" t="n">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="E81" t="n">
         <v>682</v>
       </c>
       <c r="F81" t="n">
-        <v>2607.3164</v>
+        <v>1004.1327</v>
       </c>
       <c r="G81" t="n">
-        <v>704.4166666666666</v>
+        <v>704.8833333333333</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="C82" t="n">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="D82" t="n">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="E82" t="n">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="F82" t="n">
-        <v>1.0221</v>
+        <v>2607.3164</v>
       </c>
       <c r="G82" t="n">
-        <v>704.2833333333333</v>
+        <v>704.4166666666666</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C83" t="n">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D83" t="n">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E83" t="n">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F83" t="n">
-        <v>379.00553977</v>
+        <v>1.0221</v>
       </c>
       <c r="G83" t="n">
-        <v>704.1833333333333</v>
+        <v>704.2833333333333</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="C84" t="n">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="D84" t="n">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="E84" t="n">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="F84" t="n">
-        <v>28.3784</v>
+        <v>379.00553977</v>
       </c>
       <c r="G84" t="n">
-        <v>703.7666666666667</v>
+        <v>704.1833333333333</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C85" t="n">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D85" t="n">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="E85" t="n">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F85" t="n">
-        <v>272.975</v>
+        <v>28.3784</v>
       </c>
       <c r="G85" t="n">
-        <v>703.2833333333333</v>
+        <v>703.7666666666667</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C86" t="n">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D86" t="n">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E86" t="n">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F86" t="n">
-        <v>326.4474</v>
+        <v>272.975</v>
       </c>
       <c r="G86" t="n">
-        <v>702.8</v>
+        <v>703.2833333333333</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C87" t="n">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="D87" t="n">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="E87" t="n">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="F87" t="n">
-        <v>338.6267</v>
+        <v>326.4474</v>
       </c>
       <c r="G87" t="n">
-        <v>702.4666666666667</v>
+        <v>702.8</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="C88" t="n">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="D88" t="n">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="E88" t="n">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F88" t="n">
-        <v>67.3614</v>
+        <v>338.6267</v>
       </c>
       <c r="G88" t="n">
-        <v>702</v>
+        <v>702.4666666666667</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C89" t="n">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="D89" t="n">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="E89" t="n">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="F89" t="n">
-        <v>63.7021</v>
+        <v>67.3614</v>
       </c>
       <c r="G89" t="n">
-        <v>701.65</v>
+        <v>702</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C90" t="n">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D90" t="n">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E90" t="n">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F90" t="n">
-        <v>347.1762</v>
+        <v>63.7021</v>
       </c>
       <c r="G90" t="n">
-        <v>701.2666666666667</v>
+        <v>701.65</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2731,15 +3003,18 @@
         <v>687</v>
       </c>
       <c r="E91" t="n">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F91" t="n">
-        <v>1050.0807</v>
+        <v>347.1762</v>
       </c>
       <c r="G91" t="n">
-        <v>700.8833333333333</v>
+        <v>701.2666666666667</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C92" t="n">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D92" t="n">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="E92" t="n">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F92" t="n">
-        <v>764.2707</v>
+        <v>1050.0807</v>
       </c>
       <c r="G92" t="n">
-        <v>700.5666666666667</v>
+        <v>700.8833333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C93" t="n">
         <v>691</v>
       </c>
       <c r="D93" t="n">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E93" t="n">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F93" t="n">
-        <v>16.2149</v>
+        <v>764.2707</v>
       </c>
       <c r="G93" t="n">
-        <v>700.6166666666667</v>
+        <v>700.5666666666667</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>691</v>
       </c>
       <c r="F94" t="n">
-        <v>2.2966</v>
+        <v>16.2149</v>
       </c>
       <c r="G94" t="n">
-        <v>700.2666666666667</v>
+        <v>700.6166666666667</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>691</v>
       </c>
       <c r="F95" t="n">
-        <v>39.2525</v>
+        <v>2.2966</v>
       </c>
       <c r="G95" t="n">
-        <v>699.9166666666666</v>
+        <v>700.2666666666667</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="C96" t="n">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="D96" t="n">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E96" t="n">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="F96" t="n">
-        <v>5409.3245</v>
+        <v>39.2525</v>
       </c>
       <c r="G96" t="n">
-        <v>699.45</v>
+        <v>699.9166666666666</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>683</v>
+      </c>
+      <c r="C97" t="n">
         <v>685</v>
       </c>
-      <c r="C97" t="n">
-        <v>683</v>
-      </c>
       <c r="D97" t="n">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="E97" t="n">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="F97" t="n">
-        <v>700.3443</v>
+        <v>5409.3245</v>
       </c>
       <c r="G97" t="n">
-        <v>698.9666666666667</v>
+        <v>699.45</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>685</v>
+      </c>
+      <c r="C98" t="n">
         <v>683</v>
       </c>
-      <c r="C98" t="n">
-        <v>682</v>
-      </c>
       <c r="D98" t="n">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E98" t="n">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F98" t="n">
-        <v>493.7757</v>
+        <v>700.3443</v>
       </c>
       <c r="G98" t="n">
-        <v>698.6666666666666</v>
+        <v>698.9666666666667</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2933,21 +3229,24 @@
         <v>683</v>
       </c>
       <c r="C99" t="n">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D99" t="n">
         <v>683</v>
       </c>
       <c r="E99" t="n">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F99" t="n">
-        <v>913.796</v>
+        <v>493.7757</v>
       </c>
       <c r="G99" t="n">
-        <v>698.3333333333334</v>
+        <v>698.6666666666666</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C100" t="n">
         <v>683</v>
       </c>
       <c r="D100" t="n">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E100" t="n">
         <v>683</v>
       </c>
       <c r="F100" t="n">
-        <v>657.9091</v>
+        <v>913.796</v>
       </c>
       <c r="G100" t="n">
-        <v>698.1</v>
+        <v>698.3333333333334</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="C101" t="n">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="D101" t="n">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="E101" t="n">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="F101" t="n">
-        <v>157.9928</v>
+        <v>657.9091</v>
       </c>
       <c r="G101" t="n">
-        <v>697.6333333333333</v>
+        <v>698.1</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C102" t="n">
         <v>672</v>
       </c>
       <c r="D102" t="n">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E102" t="n">
         <v>672</v>
       </c>
       <c r="F102" t="n">
-        <v>2160.5665</v>
+        <v>157.9928</v>
       </c>
       <c r="G102" t="n">
-        <v>696.95</v>
+        <v>697.6333333333333</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C103" t="n">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D103" t="n">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E103" t="n">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F103" t="n">
-        <v>50.1873</v>
+        <v>2160.5665</v>
       </c>
       <c r="G103" t="n">
-        <v>696.4</v>
+        <v>696.95</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="C104" t="n">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="D104" t="n">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="E104" t="n">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="F104" t="n">
-        <v>2293.7269</v>
+        <v>50.1873</v>
       </c>
       <c r="G104" t="n">
-        <v>695.6333333333333</v>
+        <v>696.4</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="C105" t="n">
         <v>665</v>
       </c>
       <c r="D105" t="n">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="E105" t="n">
         <v>665</v>
       </c>
       <c r="F105" t="n">
-        <v>303.1265</v>
+        <v>2293.7269</v>
       </c>
       <c r="G105" t="n">
-        <v>694.7333333333333</v>
+        <v>695.6333333333333</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C106" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D106" t="n">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E106" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F106" t="n">
-        <v>1640.7828</v>
+        <v>303.1265</v>
       </c>
       <c r="G106" t="n">
-        <v>693.8166666666667</v>
+        <v>694.7333333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="C107" t="n">
-        <v>684</v>
+        <v>666</v>
       </c>
       <c r="D107" t="n">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="E107" t="n">
-        <v>684</v>
+        <v>666</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>1640.7828</v>
       </c>
       <c r="G107" t="n">
-        <v>693.3666666666667</v>
+        <v>693.8166666666667</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>669</v>
+        <v>684</v>
       </c>
       <c r="C108" t="n">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="D108" t="n">
-        <v>669</v>
+        <v>684</v>
       </c>
       <c r="E108" t="n">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="F108" t="n">
-        <v>49.458</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>692.8333333333334</v>
+        <v>693.3666666666667</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C109" t="n">
         <v>668</v>
       </c>
       <c r="D109" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E109" t="n">
         <v>668</v>
       </c>
       <c r="F109" t="n">
-        <v>2519.029</v>
+        <v>49.458</v>
       </c>
       <c r="G109" t="n">
-        <v>692.2666666666667</v>
+        <v>692.8333333333334</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,12 +3557,15 @@
         <v>668</v>
       </c>
       <c r="F110" t="n">
-        <v>293.6</v>
+        <v>2519.029</v>
       </c>
       <c r="G110" t="n">
-        <v>691.7166666666667</v>
+        <v>692.2666666666667</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>668</v>
       </c>
       <c r="F111" t="n">
-        <v>146.8</v>
+        <v>293.6</v>
       </c>
       <c r="G111" t="n">
-        <v>691.15</v>
+        <v>691.7166666666667</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>668</v>
       </c>
       <c r="F112" t="n">
-        <v>146.9</v>
+        <v>146.8</v>
       </c>
       <c r="G112" t="n">
-        <v>690.4333333333333</v>
+        <v>691.15</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3297,21 +3635,24 @@
         <v>668</v>
       </c>
       <c r="C113" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D113" t="n">
         <v>668</v>
       </c>
       <c r="E113" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F113" t="n">
-        <v>377.5979</v>
+        <v>146.9</v>
       </c>
       <c r="G113" t="n">
-        <v>689.7</v>
+        <v>690.4333333333333</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C114" t="n">
         <v>667</v>
       </c>
       <c r="D114" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E114" t="n">
         <v>667</v>
       </c>
       <c r="F114" t="n">
-        <v>1381.1914</v>
+        <v>377.5979</v>
       </c>
       <c r="G114" t="n">
-        <v>688.9666666666667</v>
+        <v>689.7</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>667</v>
       </c>
       <c r="F115" t="n">
-        <v>360</v>
+        <v>1381.1914</v>
       </c>
       <c r="G115" t="n">
-        <v>688.1</v>
+        <v>688.9666666666667</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>667</v>
       </c>
       <c r="F116" t="n">
-        <v>463.7999</v>
+        <v>360</v>
       </c>
       <c r="G116" t="n">
-        <v>687.2333333333333</v>
+        <v>688.1</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3401,21 +3751,24 @@
         <v>667</v>
       </c>
       <c r="C117" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D117" t="n">
         <v>667</v>
       </c>
       <c r="E117" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="F117" t="n">
-        <v>1472.4449</v>
+        <v>463.7999</v>
       </c>
       <c r="G117" t="n">
-        <v>686.3166666666667</v>
+        <v>687.2333333333333</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="C118" t="n">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="D118" t="n">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="E118" t="n">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>1472.4449</v>
       </c>
       <c r="G118" t="n">
-        <v>685.5833333333334</v>
+        <v>686.3166666666667</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C119" t="n">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D119" t="n">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="E119" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F119" t="n">
-        <v>1267.5367</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>684.9</v>
+        <v>685.5833333333334</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>675</v>
+      </c>
+      <c r="C120" t="n">
         <v>679</v>
       </c>
-      <c r="C120" t="n">
-        <v>670</v>
-      </c>
       <c r="D120" t="n">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="E120" t="n">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="F120" t="n">
-        <v>765.596</v>
+        <v>1267.5367</v>
       </c>
       <c r="G120" t="n">
-        <v>684.3833333333333</v>
+        <v>684.9</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C121" t="n">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="D121" t="n">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E121" t="n">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>765.596</v>
       </c>
       <c r="G121" t="n">
-        <v>684.3333333333334</v>
+        <v>684.3833333333333</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="C122" t="n">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="D122" t="n">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="E122" t="n">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="F122" t="n">
-        <v>77.583</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>684.0666666666667</v>
+        <v>684.3333333333334</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="C123" t="n">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="D123" t="n">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E123" t="n">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>77.583</v>
       </c>
       <c r="G123" t="n">
-        <v>683.8</v>
+        <v>684.0666666666667</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C124" t="n">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D124" t="n">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E124" t="n">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F124" t="n">
         <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>683.75</v>
+        <v>683.8</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="C125" t="n">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="D125" t="n">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="E125" t="n">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="F125" t="n">
-        <v>2977.0781</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>683.0666666666667</v>
+        <v>683.75</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="C126" t="n">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="D126" t="n">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="E126" t="n">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>2977.0781</v>
       </c>
       <c r="G126" t="n">
-        <v>682.9166666666666</v>
+        <v>683.0666666666667</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="C127" t="n">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="D127" t="n">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="E127" t="n">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="F127" t="n">
-        <v>338.3587</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>682.6166666666667</v>
+        <v>682.9166666666666</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C128" t="n">
         <v>664</v>
       </c>
       <c r="D128" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E128" t="n">
         <v>664</v>
       </c>
       <c r="F128" t="n">
-        <v>755.1876999999999</v>
+        <v>338.3587</v>
       </c>
       <c r="G128" t="n">
-        <v>681.9166666666666</v>
+        <v>682.6166666666667</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C129" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D129" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="E129" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="F129" t="n">
-        <v>483.2753</v>
+        <v>755.1876999999999</v>
       </c>
       <c r="G129" t="n">
-        <v>681.2166666666667</v>
+        <v>681.9166666666666</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C130" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D130" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E130" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F130" t="n">
-        <v>37.6899</v>
+        <v>483.2753</v>
       </c>
       <c r="G130" t="n">
-        <v>680.4833333333333</v>
+        <v>681.2166666666667</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C131" t="n">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="D131" t="n">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E131" t="n">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="F131" t="n">
-        <v>2093.56160074</v>
+        <v>37.6899</v>
       </c>
       <c r="G131" t="n">
-        <v>679.8666666666667</v>
+        <v>680.4833333333333</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="C132" t="n">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D132" t="n">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="E132" t="n">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F132" t="n">
-        <v>10</v>
+        <v>2093.56160074</v>
       </c>
       <c r="G132" t="n">
-        <v>679.1666666666666</v>
+        <v>679.8666666666667</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,12 +4224,15 @@
         <v>663</v>
       </c>
       <c r="F133" t="n">
-        <v>1390</v>
+        <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>678.6</v>
+        <v>679.1666666666666</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3852,12 +4253,15 @@
         <v>663</v>
       </c>
       <c r="F134" t="n">
-        <v>143.209</v>
+        <v>1390</v>
       </c>
       <c r="G134" t="n">
-        <v>677.8833333333333</v>
+        <v>678.6</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C135" t="n">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="D135" t="n">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="E135" t="n">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F135" t="n">
-        <v>1763.8153</v>
+        <v>143.209</v>
       </c>
       <c r="G135" t="n">
-        <v>677.35</v>
+        <v>677.8833333333333</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,7 +4299,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C136" t="n">
         <v>671</v>
@@ -3901,15 +4308,18 @@
         <v>671</v>
       </c>
       <c r="E136" t="n">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F136" t="n">
-        <v>160.38</v>
+        <v>1763.8153</v>
       </c>
       <c r="G136" t="n">
-        <v>677.1666666666666</v>
+        <v>677.35</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="C137" t="n">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="D137" t="n">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="E137" t="n">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="F137" t="n">
-        <v>210.6522</v>
+        <v>160.38</v>
       </c>
       <c r="G137" t="n">
-        <v>676.45</v>
+        <v>677.1666666666666</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C138" t="n">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D138" t="n">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E138" t="n">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F138" t="n">
-        <v>688.0713</v>
+        <v>210.6522</v>
       </c>
       <c r="G138" t="n">
-        <v>676.1</v>
+        <v>676.45</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C139" t="n">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D139" t="n">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E139" t="n">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F139" t="n">
-        <v>816.7481</v>
+        <v>688.0713</v>
       </c>
       <c r="G139" t="n">
-        <v>675.8166666666667</v>
+        <v>676.1</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,7 +4415,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C140" t="n">
         <v>667</v>
@@ -4005,15 +4424,18 @@
         <v>667</v>
       </c>
       <c r="E140" t="n">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F140" t="n">
-        <v>333.5502</v>
+        <v>816.7481</v>
       </c>
       <c r="G140" t="n">
-        <v>675.5666666666667</v>
+        <v>675.8166666666667</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C141" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D141" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E141" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="F141" t="n">
-        <v>18</v>
+        <v>333.5502</v>
       </c>
       <c r="G141" t="n">
-        <v>675.2833333333333</v>
+        <v>675.5666666666667</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C142" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D142" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E142" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F142" t="n">
-        <v>196.4899</v>
+        <v>18</v>
       </c>
       <c r="G142" t="n">
-        <v>674.65</v>
+        <v>675.2833333333333</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C143" t="n">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D143" t="n">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E143" t="n">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F143" t="n">
-        <v>107.3358</v>
+        <v>196.4899</v>
       </c>
       <c r="G143" t="n">
-        <v>674.0333333333333</v>
+        <v>674.65</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4112,12 +4543,15 @@
         <v>667</v>
       </c>
       <c r="F144" t="n">
-        <v>399.5142</v>
+        <v>107.3358</v>
       </c>
       <c r="G144" t="n">
-        <v>673.7166666666667</v>
+        <v>674.0333333333333</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C145" t="n">
         <v>667</v>
       </c>
       <c r="D145" t="n">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E145" t="n">
         <v>667</v>
       </c>
       <c r="F145" t="n">
-        <v>1384.6756</v>
+        <v>399.5142</v>
       </c>
       <c r="G145" t="n">
-        <v>673.2666666666667</v>
+        <v>673.7166666666667</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C146" t="n">
         <v>667</v>
       </c>
       <c r="D146" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E146" t="n">
         <v>667</v>
       </c>
       <c r="F146" t="n">
-        <v>29.8911</v>
+        <v>1384.6756</v>
       </c>
       <c r="G146" t="n">
-        <v>672.8</v>
+        <v>673.2666666666667</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="C147" t="n">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="D147" t="n">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="E147" t="n">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="F147" t="n">
-        <v>2776.48339854</v>
+        <v>29.8911</v>
       </c>
       <c r="G147" t="n">
-        <v>672.75</v>
+        <v>672.8</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,7 +4647,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="C148" t="n">
         <v>688</v>
@@ -4213,15 +4656,18 @@
         <v>688</v>
       </c>
       <c r="E148" t="n">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="F148" t="n">
-        <v>590.795</v>
+        <v>2776.48339854</v>
       </c>
       <c r="G148" t="n">
-        <v>672.85</v>
+        <v>672.75</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>688</v>
       </c>
       <c r="F149" t="n">
-        <v>341.15750146</v>
+        <v>590.795</v>
       </c>
       <c r="G149" t="n">
-        <v>672.8333333333334</v>
+        <v>672.85</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4259,21 +4708,24 @@
         <v>688</v>
       </c>
       <c r="C150" t="n">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D150" t="n">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E150" t="n">
         <v>688</v>
       </c>
       <c r="F150" t="n">
-        <v>6125.5961</v>
+        <v>341.15750146</v>
       </c>
       <c r="G150" t="n">
-        <v>672.8833333333333</v>
+        <v>672.8333333333334</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,7 +4734,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C151" t="n">
         <v>690</v>
@@ -4291,15 +4743,18 @@
         <v>690</v>
       </c>
       <c r="E151" t="n">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F151" t="n">
-        <v>828.1528</v>
+        <v>6125.5961</v>
       </c>
       <c r="G151" t="n">
-        <v>672.9333333333333</v>
+        <v>672.8833333333333</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4311,21 +4766,24 @@
         <v>690</v>
       </c>
       <c r="C152" t="n">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D152" t="n">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E152" t="n">
         <v>690</v>
       </c>
       <c r="F152" t="n">
-        <v>1371.7659</v>
+        <v>828.1528</v>
       </c>
       <c r="G152" t="n">
-        <v>672.9833333333333</v>
+        <v>672.9333333333333</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,7 +4792,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C153" t="n">
         <v>694</v>
@@ -4343,15 +4801,18 @@
         <v>694</v>
       </c>
       <c r="E153" t="n">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="F153" t="n">
-        <v>148</v>
+        <v>1371.7659</v>
       </c>
       <c r="G153" t="n">
-        <v>673.0333333333333</v>
+        <v>672.9833333333333</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4363,22 +4824,25 @@
         <v>694</v>
       </c>
       <c r="C154" t="n">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D154" t="n">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="E154" t="n">
         <v>694</v>
       </c>
       <c r="F154" t="n">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="G154" t="n">
-        <v>673.1833333333333</v>
+        <v>673.0333333333333</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -4386,7 +4850,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C155" t="n">
         <v>700</v>
@@ -4395,15 +4859,18 @@
         <v>700</v>
       </c>
       <c r="E155" t="n">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="F155" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="G155" t="n">
-        <v>673.3333333333334</v>
+        <v>673.1833333333333</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4415,21 +4882,24 @@
         <v>700</v>
       </c>
       <c r="C156" t="n">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="D156" t="n">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="E156" t="n">
         <v>700</v>
       </c>
       <c r="F156" t="n">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="G156" t="n">
-        <v>673.8</v>
+        <v>673.3333333333334</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="C157" t="n">
         <v>713</v>
       </c>
       <c r="D157" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E157" t="n">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="F157" t="n">
-        <v>589.1002999999999</v>
+        <v>150</v>
       </c>
       <c r="G157" t="n">
-        <v>674.3</v>
+        <v>673.8</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,7 +4937,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C158" t="n">
         <v>713</v>
@@ -4476,12 +4949,15 @@
         <v>713</v>
       </c>
       <c r="F158" t="n">
-        <v>191.0722</v>
+        <v>589.1002999999999</v>
       </c>
       <c r="G158" t="n">
-        <v>674.8166666666667</v>
+        <v>674.3</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4493,21 +4969,24 @@
         <v>714</v>
       </c>
       <c r="C159" t="n">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="D159" t="n">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="E159" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F159" t="n">
-        <v>80</v>
+        <v>191.0722</v>
       </c>
       <c r="G159" t="n">
-        <v>675.55</v>
+        <v>674.8166666666667</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,7 +4995,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="C160" t="n">
         <v>727</v>
@@ -4525,15 +5004,18 @@
         <v>727</v>
       </c>
       <c r="E160" t="n">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="F160" t="n">
-        <v>3100.8679</v>
+        <v>80</v>
       </c>
       <c r="G160" t="n">
-        <v>676.2833333333333</v>
+        <v>675.55</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C161" t="n">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D161" t="n">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E161" t="n">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F161" t="n">
-        <v>923.5074</v>
+        <v>3100.8679</v>
       </c>
       <c r="G161" t="n">
-        <v>677.25</v>
+        <v>676.2833333333333</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,7 +5053,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C162" t="n">
         <v>730</v>
@@ -4577,15 +5062,18 @@
         <v>730</v>
       </c>
       <c r="E162" t="n">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F162" t="n">
-        <v>92</v>
+        <v>923.5074</v>
       </c>
       <c r="G162" t="n">
-        <v>678.2166666666667</v>
+        <v>677.25</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="C163" t="n">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="D163" t="n">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="E163" t="n">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="F163" t="n">
-        <v>144.3059</v>
+        <v>92</v>
       </c>
       <c r="G163" t="n">
-        <v>678.9333333333333</v>
+        <v>678.2166666666667</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="C164" t="n">
-        <v>701</v>
+        <v>721</v>
       </c>
       <c r="D164" t="n">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="E164" t="n">
-        <v>701</v>
+        <v>721</v>
       </c>
       <c r="F164" t="n">
-        <v>102.2947</v>
+        <v>144.3059</v>
       </c>
       <c r="G164" t="n">
-        <v>679.5333333333333</v>
+        <v>678.9333333333333</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="C165" t="n">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="D165" t="n">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="E165" t="n">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="F165" t="n">
-        <v>372.9666</v>
+        <v>102.2947</v>
       </c>
       <c r="G165" t="n">
-        <v>680.0666666666667</v>
+        <v>679.5333333333333</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="C166" t="n">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="D166" t="n">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="E166" t="n">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="F166" t="n">
-        <v>938.3057</v>
+        <v>372.9666</v>
       </c>
       <c r="G166" t="n">
-        <v>680.4666666666667</v>
+        <v>680.0666666666667</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C167" t="n">
         <v>690</v>
       </c>
       <c r="D167" t="n">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="E167" t="n">
         <v>690</v>
       </c>
       <c r="F167" t="n">
-        <v>8.9238</v>
+        <v>938.3057</v>
       </c>
       <c r="G167" t="n">
-        <v>680.5666666666667</v>
+        <v>680.4666666666667</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="C168" t="n">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="D168" t="n">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="E168" t="n">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="F168" t="n">
-        <v>14.881</v>
+        <v>8.9238</v>
       </c>
       <c r="G168" t="n">
-        <v>680.8333333333334</v>
+        <v>680.5666666666667</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C169" t="n">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D169" t="n">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E169" t="n">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F169" t="n">
-        <v>165.8923</v>
+        <v>14.881</v>
       </c>
       <c r="G169" t="n">
-        <v>681.0833333333334</v>
+        <v>680.8333333333334</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C170" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D170" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E170" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F170" t="n">
-        <v>696.0972</v>
+        <v>165.8923</v>
       </c>
       <c r="G170" t="n">
-        <v>681.3166666666667</v>
+        <v>681.0833333333334</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C171" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D171" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E171" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F171" t="n">
-        <v>624.5265000000001</v>
+        <v>696.0972</v>
       </c>
       <c r="G171" t="n">
-        <v>681.5333333333333</v>
+        <v>681.3166666666667</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C172" t="n">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D172" t="n">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E172" t="n">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F172" t="n">
-        <v>150.9653</v>
+        <v>624.5265000000001</v>
       </c>
       <c r="G172" t="n">
-        <v>681.7166666666667</v>
+        <v>681.5333333333333</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="C173" t="n">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="D173" t="n">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="E173" t="n">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="F173" t="n">
-        <v>148.5478</v>
+        <v>150.9653</v>
       </c>
       <c r="G173" t="n">
-        <v>682.0666666666667</v>
+        <v>681.7166666666667</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C174" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D174" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E174" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F174" t="n">
-        <v>245.348</v>
+        <v>148.5478</v>
       </c>
       <c r="G174" t="n">
-        <v>682.4333333333333</v>
+        <v>682.0666666666667</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="C175" t="n">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="D175" t="n">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="E175" t="n">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>245.348</v>
       </c>
       <c r="G175" t="n">
-        <v>683.1666666666666</v>
+        <v>682.4333333333333</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C176" t="n">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D176" t="n">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E176" t="n">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F176" t="n">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>683.8666666666667</v>
+        <v>683.1666666666666</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C177" t="n">
         <v>709</v>
       </c>
       <c r="D177" t="n">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E177" t="n">
         <v>709</v>
       </c>
       <c r="F177" t="n">
-        <v>90.7764</v>
+        <v>190</v>
       </c>
       <c r="G177" t="n">
-        <v>684.6</v>
+        <v>683.8666666666667</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C178" t="n">
         <v>709</v>
       </c>
       <c r="D178" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E178" t="n">
         <v>709</v>
       </c>
       <c r="F178" t="n">
-        <v>3072.4884</v>
+        <v>90.7764</v>
       </c>
       <c r="G178" t="n">
-        <v>685.15</v>
+        <v>684.6</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C179" t="n">
         <v>709</v>
       </c>
       <c r="D179" t="n">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E179" t="n">
         <v>709</v>
       </c>
       <c r="F179" t="n">
-        <v>112.4056</v>
+        <v>3072.4884</v>
       </c>
       <c r="G179" t="n">
-        <v>685.65</v>
+        <v>685.15</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="C180" t="n">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="D180" t="n">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="E180" t="n">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="F180" t="n">
-        <v>154.2406</v>
+        <v>112.4056</v>
       </c>
       <c r="G180" t="n">
-        <v>686.1666666666666</v>
+        <v>685.65</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>702</v>
+      </c>
+      <c r="C181" t="n">
         <v>701</v>
       </c>
-      <c r="C181" t="n">
-        <v>700</v>
-      </c>
       <c r="D181" t="n">
+        <v>702</v>
+      </c>
+      <c r="E181" t="n">
         <v>701</v>
       </c>
-      <c r="E181" t="n">
-        <v>700</v>
-      </c>
       <c r="F181" t="n">
-        <v>135.327</v>
+        <v>154.2406</v>
       </c>
       <c r="G181" t="n">
-        <v>686.4166666666666</v>
+        <v>686.1666666666666</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C182" t="n">
         <v>700</v>
       </c>
       <c r="D182" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E182" t="n">
         <v>700</v>
       </c>
       <c r="F182" t="n">
-        <v>216.9631</v>
+        <v>135.327</v>
       </c>
       <c r="G182" t="n">
-        <v>686.95</v>
+        <v>686.4166666666666</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="C183" t="n">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="D183" t="n">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="E183" t="n">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="F183" t="n">
-        <v>351.4244</v>
+        <v>216.9631</v>
       </c>
       <c r="G183" t="n">
-        <v>687.1</v>
+        <v>686.95</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="C184" t="n">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="D184" t="n">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="E184" t="n">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F184" t="n">
-        <v>128.7186</v>
+        <v>351.4244</v>
       </c>
       <c r="G184" t="n">
-        <v>687.3333333333334</v>
+        <v>687.1</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="C185" t="n">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="D185" t="n">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="E185" t="n">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="F185" t="n">
-        <v>10.7329</v>
+        <v>128.7186</v>
       </c>
       <c r="G185" t="n">
-        <v>688</v>
+        <v>687.3333333333334</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="C186" t="n">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D186" t="n">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E186" t="n">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="F186" t="n">
-        <v>200</v>
+        <v>10.7329</v>
       </c>
       <c r="G186" t="n">
-        <v>688.5666666666667</v>
+        <v>688</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="C187" t="n">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="D187" t="n">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="E187" t="n">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="F187" t="n">
-        <v>10.1794</v>
+        <v>200</v>
       </c>
       <c r="G187" t="n">
-        <v>689.4833333333333</v>
+        <v>688.5666666666667</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5247,21 +5810,24 @@
         <v>719</v>
       </c>
       <c r="C188" t="n">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D188" t="n">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E188" t="n">
         <v>719</v>
       </c>
       <c r="F188" t="n">
-        <v>716.2165</v>
+        <v>10.1794</v>
       </c>
       <c r="G188" t="n">
-        <v>690.4166666666666</v>
+        <v>689.4833333333333</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="C189" t="n">
-        <v>751</v>
+        <v>720</v>
       </c>
       <c r="D189" t="n">
-        <v>751</v>
+        <v>720</v>
       </c>
       <c r="E189" t="n">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="F189" t="n">
-        <v>6056.82681531</v>
+        <v>716.2165</v>
       </c>
       <c r="G189" t="n">
-        <v>691.9166666666666</v>
+        <v>690.4166666666666</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
+        <v>730</v>
+      </c>
+      <c r="C190" t="n">
         <v>751</v>
       </c>
-      <c r="C190" t="n">
-        <v>759</v>
-      </c>
       <c r="D190" t="n">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="E190" t="n">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="F190" t="n">
-        <v>7487.27778469</v>
+        <v>6056.82681531</v>
       </c>
       <c r="G190" t="n">
-        <v>693.5833333333334</v>
+        <v>691.9166666666666</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C191" t="n">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="D191" t="n">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="E191" t="n">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="F191" t="n">
-        <v>413.2883</v>
+        <v>7487.27778469</v>
       </c>
       <c r="G191" t="n">
-        <v>695.05</v>
+        <v>693.5833333333334</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,25 +5923,28 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="C192" t="n">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="D192" t="n">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="E192" t="n">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="F192" t="n">
-        <v>426.2334</v>
+        <v>413.2883</v>
       </c>
       <c r="G192" t="n">
-        <v>696.3166666666667</v>
+        <v>695.05</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -5374,25 +5952,28 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="C193" t="n">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="D193" t="n">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="E193" t="n">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="F193" t="n">
-        <v>4219.2243</v>
+        <v>426.2334</v>
       </c>
       <c r="G193" t="n">
-        <v>697.8666666666667</v>
+        <v>696.3166666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>729</v>
+        <v>749</v>
       </c>
       <c r="C194" t="n">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="D194" t="n">
-        <v>729</v>
+        <v>759</v>
       </c>
       <c r="E194" t="n">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="F194" t="n">
-        <v>3185.1229</v>
+        <v>4219.2243</v>
       </c>
       <c r="G194" t="n">
-        <v>698.95</v>
+        <v>697.8666666666667</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="C195" t="n">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="D195" t="n">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="E195" t="n">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="F195" t="n">
-        <v>1088.5383</v>
+        <v>3185.1229</v>
       </c>
       <c r="G195" t="n">
-        <v>700.0166666666667</v>
+        <v>698.95</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,24 +6039,27 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>712</v>
+        <v>747</v>
       </c>
       <c r="C196" t="n">
-        <v>702</v>
+        <v>735</v>
       </c>
       <c r="D196" t="n">
-        <v>712</v>
+        <v>747</v>
       </c>
       <c r="E196" t="n">
-        <v>702</v>
+        <v>722</v>
       </c>
       <c r="F196" t="n">
-        <v>1693.1371</v>
+        <v>1088.5383</v>
       </c>
       <c r="G196" t="n">
-        <v>700.5333333333333</v>
+        <v>700.0166666666667</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="C197" t="n">
         <v>702</v>
       </c>
       <c r="D197" t="n">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="E197" t="n">
         <v>702</v>
       </c>
       <c r="F197" t="n">
-        <v>39.9112</v>
+        <v>1693.1371</v>
       </c>
       <c r="G197" t="n">
-        <v>701.2</v>
+        <v>700.5333333333333</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C198" t="n">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="D198" t="n">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E198" t="n">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="F198" t="n">
-        <v>8217.527099999999</v>
+        <v>39.9112</v>
       </c>
       <c r="G198" t="n">
-        <v>701.6166666666667</v>
+        <v>701.2</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,24 +6126,27 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="C199" t="n">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D199" t="n">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="E199" t="n">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F199" t="n">
-        <v>140.8645</v>
+        <v>8217.527099999999</v>
       </c>
       <c r="G199" t="n">
-        <v>702.0333333333333</v>
+        <v>701.6166666666667</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,24 +6155,27 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="C200" t="n">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="D200" t="n">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="E200" t="n">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="F200" t="n">
-        <v>270.723</v>
+        <v>140.8645</v>
       </c>
       <c r="G200" t="n">
-        <v>702.65</v>
+        <v>702.0333333333333</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,24 +6184,27 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C201" t="n">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D201" t="n">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="E201" t="n">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="F201" t="n">
-        <v>3109.4225</v>
+        <v>270.723</v>
       </c>
       <c r="G201" t="n">
-        <v>703.4</v>
+        <v>702.65</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="C202" t="n">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="D202" t="n">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="E202" t="n">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="F202" t="n">
-        <v>26.3212</v>
+        <v>3109.4225</v>
       </c>
       <c r="G202" t="n">
-        <v>704</v>
+        <v>703.4</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,24 +6242,27 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>728</v>
+        <v>700</v>
       </c>
       <c r="C203" t="n">
-        <v>728</v>
+        <v>700</v>
       </c>
       <c r="D203" t="n">
-        <v>728</v>
+        <v>700</v>
       </c>
       <c r="E203" t="n">
-        <v>728</v>
+        <v>700</v>
       </c>
       <c r="F203" t="n">
-        <v>2</v>
+        <v>26.3212</v>
       </c>
       <c r="G203" t="n">
-        <v>705.0166666666667</v>
+        <v>704</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5660,24 +6271,27 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>705</v>
+        <v>728</v>
       </c>
       <c r="C204" t="n">
-        <v>705</v>
+        <v>728</v>
       </c>
       <c r="D204" t="n">
-        <v>705</v>
+        <v>728</v>
       </c>
       <c r="E204" t="n">
-        <v>705</v>
+        <v>728</v>
       </c>
       <c r="F204" t="n">
-        <v>197.8965</v>
+        <v>2</v>
       </c>
       <c r="G204" t="n">
-        <v>705.65</v>
+        <v>705.0166666666667</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="C205" t="n">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D205" t="n">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="E205" t="n">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="F205" t="n">
-        <v>4.3683</v>
+        <v>197.8965</v>
       </c>
       <c r="G205" t="n">
-        <v>706.4333333333333</v>
+        <v>705.65</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,24 +6329,27 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="C206" t="n">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="D206" t="n">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="E206" t="n">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="F206" t="n">
-        <v>270.0462</v>
+        <v>4.3683</v>
       </c>
       <c r="G206" t="n">
-        <v>707.0333333333333</v>
+        <v>706.4333333333333</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,24 +6358,27 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C207" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D207" t="n">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E207" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F207" t="n">
-        <v>1.0474</v>
+        <v>270.0462</v>
       </c>
       <c r="G207" t="n">
-        <v>707.3</v>
+        <v>707.0333333333333</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5767,21 +6390,24 @@
         <v>704</v>
       </c>
       <c r="C208" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D208" t="n">
         <v>704</v>
       </c>
       <c r="E208" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F208" t="n">
-        <v>60.1552</v>
+        <v>1.0474</v>
       </c>
       <c r="G208" t="n">
-        <v>707.55</v>
+        <v>707.3</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,24 +6416,27 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C209" t="n">
         <v>703</v>
       </c>
       <c r="D209" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E209" t="n">
         <v>703</v>
       </c>
       <c r="F209" t="n">
-        <v>1.995</v>
+        <v>60.1552</v>
       </c>
       <c r="G209" t="n">
-        <v>707.8</v>
+        <v>707.55</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5819,21 +6448,24 @@
         <v>703</v>
       </c>
       <c r="C210" t="n">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D210" t="n">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E210" t="n">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F210" t="n">
-        <v>3541.4059</v>
+        <v>1.995</v>
       </c>
       <c r="G210" t="n">
-        <v>708.05</v>
+        <v>707.8</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5842,10 +6474,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
+        <v>703</v>
+      </c>
+      <c r="C211" t="n">
         <v>705</v>
-      </c>
-      <c r="C211" t="n">
-        <v>702</v>
       </c>
       <c r="D211" t="n">
         <v>705</v>
@@ -5854,12 +6486,15 @@
         <v>702</v>
       </c>
       <c r="F211" t="n">
-        <v>870.9985</v>
+        <v>3541.4059</v>
       </c>
       <c r="G211" t="n">
-        <v>708.25</v>
+        <v>708.05</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,24 +6503,27 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
+        <v>705</v>
+      </c>
+      <c r="C212" t="n">
         <v>702</v>
       </c>
-      <c r="C212" t="n">
-        <v>688</v>
-      </c>
       <c r="D212" t="n">
+        <v>705</v>
+      </c>
+      <c r="E212" t="n">
         <v>702</v>
       </c>
-      <c r="E212" t="n">
-        <v>688</v>
-      </c>
       <c r="F212" t="n">
-        <v>2500.6088</v>
+        <v>870.9985</v>
       </c>
       <c r="G212" t="n">
-        <v>708.15</v>
+        <v>708.25</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5894,24 +6532,27 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
+        <v>702</v>
+      </c>
+      <c r="C213" t="n">
         <v>688</v>
       </c>
-      <c r="C213" t="n">
-        <v>682</v>
-      </c>
       <c r="D213" t="n">
+        <v>702</v>
+      </c>
+      <c r="E213" t="n">
         <v>688</v>
       </c>
-      <c r="E213" t="n">
-        <v>680</v>
-      </c>
       <c r="F213" t="n">
-        <v>2247.6958</v>
+        <v>2500.6088</v>
       </c>
       <c r="G213" t="n">
-        <v>707.95</v>
+        <v>708.15</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5920,24 +6561,27 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="C214" t="n">
         <v>682</v>
       </c>
       <c r="D214" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="E214" t="n">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F214" t="n">
-        <v>323.2295</v>
+        <v>2247.6958</v>
       </c>
       <c r="G214" t="n">
-        <v>707.65</v>
+        <v>707.95</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,24 +6590,27 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="C215" t="n">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="D215" t="n">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="E215" t="n">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="F215" t="n">
-        <v>187.6784</v>
+        <v>323.2295</v>
       </c>
       <c r="G215" t="n">
-        <v>707.5833333333334</v>
+        <v>707.65</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,24 +6619,27 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="C216" t="n">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D216" t="n">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E216" t="n">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="F216" t="n">
-        <v>351.0743</v>
+        <v>187.6784</v>
       </c>
       <c r="G216" t="n">
-        <v>707.3666666666667</v>
+        <v>707.5833333333334</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,24 +6648,27 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C217" t="n">
         <v>700</v>
       </c>
       <c r="D217" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E217" t="n">
         <v>700</v>
       </c>
       <c r="F217" t="n">
-        <v>14.0883</v>
+        <v>351.0743</v>
       </c>
       <c r="G217" t="n">
-        <v>707.15</v>
+        <v>707.3666666666667</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,24 +6677,27 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C218" t="n">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="D218" t="n">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="E218" t="n">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="F218" t="n">
-        <v>386.1128</v>
+        <v>14.0883</v>
       </c>
       <c r="G218" t="n">
-        <v>706.8666666666667</v>
+        <v>707.15</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,24 +6706,27 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C219" t="n">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="D219" t="n">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E219" t="n">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="F219" t="n">
-        <v>907.5094</v>
+        <v>386.1128</v>
       </c>
       <c r="G219" t="n">
-        <v>706.1666666666666</v>
+        <v>706.8666666666667</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="C220" t="n">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="D220" t="n">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="E220" t="n">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="F220" t="n">
-        <v>417.1913</v>
+        <v>907.5094</v>
       </c>
       <c r="G220" t="n">
-        <v>705.4166666666666</v>
+        <v>706.1666666666666</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6102,24 +6764,27 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="C221" t="n">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="D221" t="n">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="E221" t="n">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="F221" t="n">
-        <v>1742.2694</v>
+        <v>417.1913</v>
       </c>
       <c r="G221" t="n">
-        <v>704.4666666666667</v>
+        <v>705.4166666666666</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6128,24 +6793,27 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="C222" t="n">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="D222" t="n">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="E222" t="n">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="F222" t="n">
-        <v>7.431</v>
+        <v>1742.2694</v>
       </c>
       <c r="G222" t="n">
-        <v>703.6666666666666</v>
+        <v>704.4666666666667</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6154,24 +6822,27 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C223" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D223" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E223" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F223" t="n">
-        <v>69.1268</v>
+        <v>7.431</v>
       </c>
       <c r="G223" t="n">
-        <v>703.0833333333334</v>
+        <v>703.6666666666666</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6180,24 +6851,27 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="C224" t="n">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="D224" t="n">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="E224" t="n">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="F224" t="n">
-        <v>1126.3794</v>
+        <v>69.1268</v>
       </c>
       <c r="G224" t="n">
-        <v>702.6</v>
+        <v>703.0833333333334</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6206,24 +6880,27 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C225" t="n">
         <v>672</v>
       </c>
       <c r="D225" t="n">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E225" t="n">
         <v>672</v>
       </c>
       <c r="F225" t="n">
-        <v>2231.9843</v>
+        <v>1126.3794</v>
       </c>
       <c r="G225" t="n">
-        <v>702.1833333333333</v>
+        <v>702.6</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6232,24 +6909,27 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C226" t="n">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="D226" t="n">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="E226" t="n">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F226" t="n">
-        <v>51</v>
+        <v>2231.9843</v>
       </c>
       <c r="G226" t="n">
         <v>702.1833333333333</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="C227" t="n">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="D227" t="n">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="E227" t="n">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="F227" t="n">
-        <v>560.0152</v>
+        <v>51</v>
       </c>
       <c r="G227" t="n">
-        <v>701.9</v>
+        <v>702.1833333333333</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,24 +6967,27 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="C228" t="n">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="D228" t="n">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="E228" t="n">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="F228" t="n">
-        <v>29.5774</v>
+        <v>560.0152</v>
       </c>
       <c r="G228" t="n">
-        <v>701.8666666666667</v>
+        <v>701.9</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="C229" t="n">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="D229" t="n">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="E229" t="n">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="F229" t="n">
-        <v>621.9366</v>
+        <v>29.5774</v>
       </c>
       <c r="G229" t="n">
-        <v>701.6833333333333</v>
+        <v>701.8666666666667</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,24 +7025,27 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C230" t="n">
         <v>672</v>
       </c>
       <c r="D230" t="n">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E230" t="n">
         <v>672</v>
       </c>
       <c r="F230" t="n">
-        <v>285.332</v>
+        <v>621.9366</v>
       </c>
       <c r="G230" t="n">
-        <v>701.5166666666667</v>
+        <v>701.6833333333333</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6374,12 +7066,15 @@
         <v>672</v>
       </c>
       <c r="F231" t="n">
-        <v>153.6094</v>
+        <v>285.332</v>
       </c>
       <c r="G231" t="n">
-        <v>701.3666666666667</v>
+        <v>701.5166666666667</v>
       </c>
       <c r="H231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,24 +7083,27 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C232" t="n">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="D232" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E232" t="n">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="F232" t="n">
-        <v>3297.8592</v>
+        <v>153.6094</v>
       </c>
       <c r="G232" t="n">
-        <v>700.9166666666666</v>
+        <v>701.3666666666667</v>
       </c>
       <c r="H232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6414,24 +7112,27 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C233" t="n">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="D233" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E233" t="n">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="F233" t="n">
-        <v>98.06319999999999</v>
+        <v>3297.8592</v>
       </c>
       <c r="G233" t="n">
-        <v>700.65</v>
+        <v>700.9166666666666</v>
       </c>
       <c r="H233" t="n">
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6440,24 +7141,27 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="C234" t="n">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="D234" t="n">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="E234" t="n">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="F234" t="n">
-        <v>408.2107</v>
+        <v>98.06319999999999</v>
       </c>
       <c r="G234" t="n">
-        <v>700.25</v>
+        <v>700.65</v>
       </c>
       <c r="H234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6466,24 +7170,27 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C235" t="n">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="D235" t="n">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="E235" t="n">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="F235" t="n">
-        <v>823.293</v>
+        <v>408.2107</v>
       </c>
       <c r="G235" t="n">
-        <v>699.4</v>
+        <v>700.25</v>
       </c>
       <c r="H235" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6492,544 +7199,27 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C236" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D236" t="n">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="E236" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="F236" t="n">
-        <v>1449.6316</v>
+        <v>823.293</v>
       </c>
       <c r="G236" t="n">
-        <v>698.5333333333333</v>
+        <v>699.4</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>659</v>
-      </c>
-      <c r="C237" t="n">
-        <v>659</v>
-      </c>
-      <c r="D237" t="n">
-        <v>659</v>
-      </c>
-      <c r="E237" t="n">
-        <v>659</v>
-      </c>
-      <c r="F237" t="n">
-        <v>241.718</v>
-      </c>
-      <c r="G237" t="n">
-        <v>697.7</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>660</v>
-      </c>
-      <c r="C238" t="n">
-        <v>661</v>
-      </c>
-      <c r="D238" t="n">
-        <v>661</v>
-      </c>
-      <c r="E238" t="n">
-        <v>660</v>
-      </c>
-      <c r="F238" t="n">
-        <v>1881.5075</v>
-      </c>
-      <c r="G238" t="n">
-        <v>696.9</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>661</v>
-      </c>
-      <c r="C239" t="n">
-        <v>661</v>
-      </c>
-      <c r="D239" t="n">
-        <v>661</v>
-      </c>
-      <c r="E239" t="n">
-        <v>661</v>
-      </c>
-      <c r="F239" t="n">
-        <v>59.4911</v>
-      </c>
-      <c r="G239" t="n">
-        <v>696.1</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>665</v>
-      </c>
-      <c r="C240" t="n">
-        <v>665</v>
-      </c>
-      <c r="D240" t="n">
-        <v>665</v>
-      </c>
-      <c r="E240" t="n">
-        <v>665</v>
-      </c>
-      <c r="F240" t="n">
-        <v>4.0433</v>
-      </c>
-      <c r="G240" t="n">
-        <v>695.5</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>668</v>
-      </c>
-      <c r="C241" t="n">
-        <v>669</v>
-      </c>
-      <c r="D241" t="n">
-        <v>669</v>
-      </c>
-      <c r="E241" t="n">
-        <v>668</v>
-      </c>
-      <c r="F241" t="n">
-        <v>588.914</v>
-      </c>
-      <c r="G241" t="n">
-        <v>694.9833333333333</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>672</v>
-      </c>
-      <c r="C242" t="n">
-        <v>683</v>
-      </c>
-      <c r="D242" t="n">
-        <v>683</v>
-      </c>
-      <c r="E242" t="n">
-        <v>672</v>
-      </c>
-      <c r="F242" t="n">
-        <v>338.7724</v>
-      </c>
-      <c r="G242" t="n">
-        <v>694.7</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>684</v>
-      </c>
-      <c r="C243" t="n">
-        <v>708</v>
-      </c>
-      <c r="D243" t="n">
-        <v>708</v>
-      </c>
-      <c r="E243" t="n">
-        <v>684</v>
-      </c>
-      <c r="F243" t="n">
-        <v>1016.0998</v>
-      </c>
-      <c r="G243" t="n">
-        <v>695.0333333333333</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>707</v>
-      </c>
-      <c r="C244" t="n">
-        <v>708</v>
-      </c>
-      <c r="D244" t="n">
-        <v>708</v>
-      </c>
-      <c r="E244" t="n">
-        <v>707</v>
-      </c>
-      <c r="F244" t="n">
-        <v>465.1578</v>
-      </c>
-      <c r="G244" t="n">
-        <v>695.25</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>707</v>
-      </c>
-      <c r="C245" t="n">
-        <v>708</v>
-      </c>
-      <c r="D245" t="n">
-        <v>709</v>
-      </c>
-      <c r="E245" t="n">
-        <v>707</v>
-      </c>
-      <c r="F245" t="n">
-        <v>1290.8347</v>
-      </c>
-      <c r="G245" t="n">
-        <v>695.3166666666667</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>712</v>
-      </c>
-      <c r="C246" t="n">
-        <v>712</v>
-      </c>
-      <c r="D246" t="n">
-        <v>712</v>
-      </c>
-      <c r="E246" t="n">
-        <v>712</v>
-      </c>
-      <c r="F246" t="n">
-        <v>53.441</v>
-      </c>
-      <c r="G246" t="n">
-        <v>695.4</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>712</v>
-      </c>
-      <c r="C247" t="n">
-        <v>712</v>
-      </c>
-      <c r="D247" t="n">
-        <v>712</v>
-      </c>
-      <c r="E247" t="n">
-        <v>712</v>
-      </c>
-      <c r="F247" t="n">
-        <v>57.9214</v>
-      </c>
-      <c r="G247" t="n">
-        <v>695.2833333333333</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>712</v>
-      </c>
-      <c r="C248" t="n">
-        <v>708</v>
-      </c>
-      <c r="D248" t="n">
-        <v>712</v>
-      </c>
-      <c r="E248" t="n">
-        <v>708</v>
-      </c>
-      <c r="F248" t="n">
-        <v>232.0055</v>
-      </c>
-      <c r="G248" t="n">
-        <v>695.0833333333334</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>711</v>
-      </c>
-      <c r="C249" t="n">
-        <v>711</v>
-      </c>
-      <c r="D249" t="n">
-        <v>711</v>
-      </c>
-      <c r="E249" t="n">
-        <v>711</v>
-      </c>
-      <c r="F249" t="n">
         <v>1</v>
       </c>
-      <c r="G249" t="n">
-        <v>694.4166666666666</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>690</v>
-      </c>
-      <c r="C250" t="n">
-        <v>698</v>
-      </c>
-      <c r="D250" t="n">
-        <v>698</v>
-      </c>
-      <c r="E250" t="n">
-        <v>661</v>
-      </c>
-      <c r="F250" t="n">
-        <v>1731.5675</v>
-      </c>
-      <c r="G250" t="n">
-        <v>693.4</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>663</v>
-      </c>
-      <c r="C251" t="n">
-        <v>663</v>
-      </c>
-      <c r="D251" t="n">
-        <v>663</v>
-      </c>
-      <c r="E251" t="n">
-        <v>663</v>
-      </c>
-      <c r="F251" t="n">
-        <v>155.6141</v>
-      </c>
-      <c r="G251" t="n">
-        <v>691.8666666666667</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>662</v>
-      </c>
-      <c r="C252" t="n">
-        <v>662</v>
-      </c>
-      <c r="D252" t="n">
-        <v>662</v>
-      </c>
-      <c r="E252" t="n">
-        <v>662</v>
-      </c>
-      <c r="F252" t="n">
-        <v>148.632</v>
-      </c>
-      <c r="G252" t="n">
-        <v>690.5833333333334</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>663</v>
-      </c>
-      <c r="C253" t="n">
-        <v>663</v>
-      </c>
-      <c r="D253" t="n">
-        <v>663</v>
-      </c>
-      <c r="E253" t="n">
-        <v>663</v>
-      </c>
-      <c r="F253" t="n">
-        <v>1375.7996</v>
-      </c>
-      <c r="G253" t="n">
-        <v>689.0333333333333</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>669</v>
-      </c>
-      <c r="C254" t="n">
-        <v>679</v>
-      </c>
-      <c r="D254" t="n">
-        <v>682</v>
-      </c>
-      <c r="E254" t="n">
-        <v>669</v>
-      </c>
-      <c r="F254" t="n">
-        <v>3</v>
-      </c>
-      <c r="G254" t="n">
-        <v>688.2166666666667</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>674</v>
-      </c>
-      <c r="C255" t="n">
-        <v>674</v>
-      </c>
-      <c r="D255" t="n">
-        <v>674</v>
-      </c>
-      <c r="E255" t="n">
-        <v>674</v>
-      </c>
-      <c r="F255" t="n">
-        <v>27.0905</v>
-      </c>
-      <c r="G255" t="n">
-        <v>687.2</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>679</v>
-      </c>
-      <c r="C256" t="n">
-        <v>697</v>
-      </c>
-      <c r="D256" t="n">
-        <v>697</v>
-      </c>
-      <c r="E256" t="n">
-        <v>679</v>
-      </c>
-      <c r="F256" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="G256" t="n">
-        <v>687.1166666666667</v>
-      </c>
-      <c r="H256" t="n">
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
